--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.182230506905</v>
+        <v>362.0839698206659</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.4050120537709</v>
+        <v>495.4192615259951</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.9003933595337</v>
+        <v>448.137142531254</v>
       </c>
       <c r="AD2" t="n">
-        <v>310182.230506905</v>
+        <v>362083.9698206659</v>
       </c>
       <c r="AE2" t="n">
-        <v>424405.0120537709</v>
+        <v>495419.2615259951</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.546651932567757e-06</v>
+        <v>4.305241447200167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.955729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>383900.3933595337</v>
+        <v>448137.142531254</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.5154510759228</v>
+        <v>176.3445089936351</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.7831010194684</v>
+        <v>241.2823369756499</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.4753805011891</v>
+        <v>218.2546893766507</v>
       </c>
       <c r="AD3" t="n">
-        <v>155515.4510759228</v>
+        <v>176344.5089936351</v>
       </c>
       <c r="AE3" t="n">
-        <v>212783.1010194684</v>
+        <v>241282.3369756499</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.030144840493005e-06</v>
+        <v>6.813159813330223e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.028211805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>192475.3805011891</v>
+        <v>218254.6893766507</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.7000024715919</v>
+        <v>164.8581142307624</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.9342418093704</v>
+        <v>225.5661449171226</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.4752545209564</v>
+        <v>204.03842863037</v>
       </c>
       <c r="AD4" t="n">
-        <v>133700.0024715919</v>
+        <v>164858.1142307624</v>
       </c>
       <c r="AE4" t="n">
-        <v>182934.2418093704</v>
+        <v>225566.1449171226</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.243672959344101e-06</v>
+        <v>7.174139692702084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.774305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>165475.2545209564</v>
+        <v>204038.42863037</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.1947027379466</v>
+        <v>259.4716332588182</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.9118624737165</v>
+        <v>355.0205357052811</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.2886952482562</v>
+        <v>321.1378740520197</v>
       </c>
       <c r="AD2" t="n">
-        <v>219194.7027379466</v>
+        <v>259471.6332588182</v>
       </c>
       <c r="AE2" t="n">
-        <v>299911.8624737165</v>
+        <v>355020.5357052811</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.152658909209152e-06</v>
+        <v>5.459746348629871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>271288.6952482562</v>
+        <v>321137.8740520197</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.3474686144472</v>
+        <v>156.5338312914556</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.8741806151293</v>
+        <v>214.1764937581241</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.3753114477059</v>
+        <v>193.7357897925069</v>
       </c>
       <c r="AD3" t="n">
-        <v>126347.4686144472</v>
+        <v>156533.8312914556</v>
       </c>
       <c r="AE3" t="n">
-        <v>172874.1806151293</v>
+        <v>214176.4937581241</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.328012184726635e-06</v>
+        <v>7.495212581786847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>156375.3114477058</v>
+        <v>193735.7897925069</v>
       </c>
     </row>
     <row r="4">
@@ -2548,28 +2548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.8271457797064</v>
+        <v>157.0135084567147</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.5304960744995</v>
+        <v>214.8328092174943</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.9689890807785</v>
+        <v>194.3294674255796</v>
       </c>
       <c r="AD4" t="n">
-        <v>126827.1457797064</v>
+        <v>157013.5084567147</v>
       </c>
       <c r="AE4" t="n">
-        <v>173530.4960744995</v>
+        <v>214832.8092174943</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.325114609061788e-06</v>
+        <v>7.490194586306964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.845920138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>156968.9890807785</v>
+        <v>194329.4674255796</v>
       </c>
     </row>
   </sheetData>
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.5495781702146</v>
+        <v>152.8956750083603</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.7824717088887</v>
+        <v>209.1986078274682</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.3877937072534</v>
+        <v>189.2329863085645</v>
       </c>
       <c r="AD2" t="n">
-        <v>125549.5781702146</v>
+        <v>152895.6750083604</v>
       </c>
       <c r="AE2" t="n">
-        <v>171782.4717088887</v>
+        <v>209198.6078274682</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.218342633133466e-06</v>
+        <v>7.982012005856689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.544704861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>155387.7937072534</v>
+        <v>189232.9863085645</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.5844087001373</v>
+        <v>148.5777597666329</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.3031048440861</v>
+        <v>203.2906457007636</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.3815453642866</v>
+        <v>183.8888717953538</v>
       </c>
       <c r="AD2" t="n">
-        <v>129584.4087001373</v>
+        <v>148577.7597666329</v>
       </c>
       <c r="AE2" t="n">
-        <v>177303.1048440861</v>
+        <v>203290.6457007636</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.293937259427179e-06</v>
+        <v>7.822621151796354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.210503472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>160381.5453642866</v>
+        <v>183888.8717953538</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.4434247881738</v>
+        <v>147.4367758546695</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.7419603190809</v>
+        <v>201.7295011757584</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.9693942816673</v>
+        <v>182.4767207127344</v>
       </c>
       <c r="AD3" t="n">
-        <v>128443.4247881738</v>
+        <v>147436.7758546695</v>
       </c>
       <c r="AE3" t="n">
-        <v>175741.9603190809</v>
+        <v>201729.5011757584</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.336004358352558e-06</v>
+        <v>7.899258270125435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.160590277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>158969.3942816673</v>
+        <v>182476.7207127344</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.9087876086907</v>
+        <v>162.2314861638718</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.9563990786705</v>
+        <v>221.9722765173526</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.2089813420997</v>
+        <v>200.787553986647</v>
       </c>
       <c r="AD2" t="n">
-        <v>135908.7876086907</v>
+        <v>162231.4861638718</v>
       </c>
       <c r="AE2" t="n">
-        <v>185956.3990786705</v>
+        <v>221972.2765173526</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.985192575158863e-06</v>
+        <v>7.809693416399901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.095920138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>168208.9813420997</v>
+        <v>200787.553986647</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.9856259091916</v>
+        <v>277.6031110146873</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.254188436738</v>
+        <v>379.8288234752054</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.3078237860437</v>
+        <v>343.5784936558329</v>
       </c>
       <c r="AD2" t="n">
-        <v>236985.6259091916</v>
+        <v>277603.1110146873</v>
       </c>
       <c r="AE2" t="n">
-        <v>324254.188436738</v>
+        <v>379828.8234752053</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.987078856193405e-06</v>
+        <v>5.139213036772004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>293307.8237860437</v>
+        <v>343578.4936558329</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.7687414744185</v>
+        <v>163.2105200898947</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.6600494287028</v>
+        <v>223.311833926865</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.322669272759</v>
+        <v>201.9992659170766</v>
       </c>
       <c r="AD3" t="n">
-        <v>132768.7414744185</v>
+        <v>163210.5200898947</v>
       </c>
       <c r="AE3" t="n">
-        <v>181660.0494287028</v>
+        <v>223311.833926865</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.200786033959047e-06</v>
+        <v>7.227373427269937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.945746527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>164322.669272759</v>
+        <v>201999.2659170766</v>
       </c>
     </row>
     <row r="4">
@@ -4054,28 +4054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.9352537275822</v>
+        <v>159.3770323430585</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.4149023719407</v>
+        <v>218.0666868701029</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.5781116894824</v>
+        <v>197.2547083338001</v>
       </c>
       <c r="AD4" t="n">
-        <v>128935.2537275823</v>
+        <v>159377.0323430585</v>
       </c>
       <c r="AE4" t="n">
-        <v>176414.9023719407</v>
+        <v>218066.6868701029</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.295929956253926e-06</v>
+        <v>7.391066757566069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>159578.1116894824</v>
+        <v>197254.7083338001</v>
       </c>
     </row>
   </sheetData>
@@ -4351,28 +4351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.1603976023365</v>
+        <v>164.0981649056716</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.0371512059973</v>
+        <v>224.5263487239358</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.9957108102582</v>
+        <v>203.0978691264975</v>
       </c>
       <c r="AD2" t="n">
-        <v>138160.3976023365</v>
+        <v>164098.1649056716</v>
       </c>
       <c r="AE2" t="n">
-        <v>189037.1512059973</v>
+        <v>224526.3487239358</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.785580195673761e-06</v>
+        <v>7.588802620732072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.566840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>170995.7108102582</v>
+        <v>203097.8691264975</v>
       </c>
     </row>
   </sheetData>
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.953140186217</v>
+        <v>193.3958954191615</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.3279195047391</v>
+        <v>264.612796137121</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.9183777134837</v>
+        <v>239.3585222602634</v>
       </c>
       <c r="AD2" t="n">
-        <v>163953.140186217</v>
+        <v>193395.8954191615</v>
       </c>
       <c r="AE2" t="n">
-        <v>224327.9195047391</v>
+        <v>264612.796137121</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.702991655212611e-06</v>
+        <v>6.558273379211684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.831163194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>202918.3777134838</v>
+        <v>239358.5222602634</v>
       </c>
     </row>
     <row r="3">
@@ -4754,28 +4754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.6499858916189</v>
+        <v>152.0074002699918</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.8151216323329</v>
+        <v>207.9832311425172</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.7990819537921</v>
+        <v>188.133603468633</v>
       </c>
       <c r="AD3" t="n">
-        <v>122649.9858916189</v>
+        <v>152007.4002699918</v>
       </c>
       <c r="AE3" t="n">
-        <v>167815.1216323329</v>
+        <v>207983.2311425172</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.343857696425404e-06</v>
+        <v>7.693294758968295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.971788194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>151799.0819537921</v>
+        <v>188133.603468633</v>
       </c>
     </row>
   </sheetData>
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.3883450421045</v>
+        <v>233.3096687775605</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.2849065469896</v>
+        <v>319.2245817174596</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.7257856415459</v>
+        <v>288.7582356729544</v>
       </c>
       <c r="AD2" t="n">
-        <v>203388.3450421045</v>
+        <v>233309.6687775605</v>
       </c>
       <c r="AE2" t="n">
-        <v>278284.9065469896</v>
+        <v>319224.5817174596</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.320473766307709e-06</v>
+        <v>5.790616307313279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.371527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>251725.785641546</v>
+        <v>288758.2356729544</v>
       </c>
     </row>
     <row r="3">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.0876663475401</v>
+        <v>155.008900574445</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.1504635749943</v>
+        <v>212.090016275916</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.8161035426287</v>
+        <v>191.8484427928105</v>
       </c>
       <c r="AD3" t="n">
-        <v>125087.6663475401</v>
+        <v>155008.900574445</v>
       </c>
       <c r="AE3" t="n">
-        <v>171150.4635749943</v>
+        <v>212090.016275916</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.334897758809996e-06</v>
+        <v>7.559683171541361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.880642361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>154816.1035426287</v>
+        <v>191848.4427928105</v>
       </c>
     </row>
   </sheetData>
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.5162180486932</v>
+        <v>329.8659193440907</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.7606179714355</v>
+        <v>451.3371035038724</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.085218642248</v>
+        <v>408.2621238010653</v>
       </c>
       <c r="AD2" t="n">
-        <v>288516.2180486933</v>
+        <v>329865.9193440907</v>
       </c>
       <c r="AE2" t="n">
-        <v>394760.6179714355</v>
+        <v>451337.1035038724</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.678721384232054e-06</v>
+        <v>4.553648817241426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.623697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>357085.218642248</v>
+        <v>408262.1238010653</v>
       </c>
     </row>
     <row r="3">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.6529627284104</v>
+        <v>172.3279028846598</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.498274061445</v>
+        <v>235.7866392971973</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.6949300107366</v>
+        <v>213.2834933713676</v>
       </c>
       <c r="AD3" t="n">
-        <v>151652.9627284103</v>
+        <v>172327.9028846598</v>
       </c>
       <c r="AE3" t="n">
-        <v>207498.274061445</v>
+        <v>235786.6392971973</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.083819591258178e-06</v>
+        <v>6.942222644364867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.002170138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>187694.9300107366</v>
+        <v>213283.4933713676</v>
       </c>
     </row>
     <row r="4">
@@ -5666,28 +5666,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.1081456496261</v>
+        <v>163.0350807666022</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.7561930777913</v>
+        <v>223.0717901048995</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.5050757034079</v>
+        <v>201.7821315405758</v>
       </c>
       <c r="AD4" t="n">
-        <v>132108.1456496261</v>
+        <v>163035.0807666022</v>
       </c>
       <c r="AE4" t="n">
-        <v>180756.1930777913</v>
+        <v>223071.7901048996</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.260092125870363e-06</v>
+        <v>7.241874270500313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.793836805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>163505.0757034079</v>
+        <v>201782.1315405758</v>
       </c>
     </row>
   </sheetData>
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.2373264541193</v>
+        <v>165.8911733369887</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.7741645379822</v>
+        <v>226.9796219616119</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.8532618172252</v>
+        <v>205.3170054095613</v>
       </c>
       <c r="AD2" t="n">
-        <v>137237.3264541193</v>
+        <v>165891.1733369887</v>
       </c>
       <c r="AE2" t="n">
-        <v>187774.1645379822</v>
+        <v>226979.6219616119</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.155690269969259e-06</v>
+        <v>7.493692959060973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.316840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>169853.2618172252</v>
+        <v>205317.0054095613</v>
       </c>
     </row>
     <row r="3">
@@ -6069,28 +6069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.4976602449335</v>
+        <v>148.7140424757923</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.1844117806047</v>
+        <v>203.4771137158041</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.2741802001971</v>
+        <v>184.0575435647484</v>
       </c>
       <c r="AD3" t="n">
-        <v>129497.6602449335</v>
+        <v>148714.0424757923</v>
       </c>
       <c r="AE3" t="n">
-        <v>177184.4117806047</v>
+        <v>203477.1137158041</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.353109993447072e-06</v>
+        <v>7.849687437883475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.075954861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>160274.1802001971</v>
+        <v>184057.5435647484</v>
       </c>
     </row>
   </sheetData>
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.7137941481669</v>
+        <v>153.2983634460031</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.0071592546205</v>
+        <v>209.7495839132108</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.5910373889717</v>
+        <v>189.7313780099838</v>
       </c>
       <c r="AD2" t="n">
-        <v>125713.7941481669</v>
+        <v>153298.3634460031</v>
       </c>
       <c r="AE2" t="n">
-        <v>172007.1592546206</v>
+        <v>209749.5839132108</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.285261981808909e-06</v>
+        <v>7.994929105182984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>155591.0373889717</v>
+        <v>189731.3780099838</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.6028650189612</v>
+        <v>152.5033329584389</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.8553811261936</v>
+        <v>208.6617881258564</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.4537447520998</v>
+        <v>188.7473999258432</v>
       </c>
       <c r="AD2" t="n">
-        <v>125602.8650189612</v>
+        <v>152503.3329584389</v>
       </c>
       <c r="AE2" t="n">
-        <v>171855.3811261936</v>
+        <v>208661.7881258564</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.130869573016138e-06</v>
+        <v>7.943815376456971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>155453.7447520998</v>
+        <v>188747.3999258431</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.704345325862</v>
+        <v>186.1420201256799</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.9368221150043</v>
+        <v>254.6877239421923</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.9961850570795</v>
+        <v>230.3806850256893</v>
       </c>
       <c r="AD2" t="n">
-        <v>152704.345325862</v>
+        <v>186142.0201256799</v>
       </c>
       <c r="AE2" t="n">
-        <v>208936.8221150043</v>
+        <v>254687.7239421923</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.443723165247563e-06</v>
+        <v>7.103021063600778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.419704861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>188996.1850570795</v>
+        <v>230380.6850256893</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.4811781379175</v>
+        <v>217.1266047024588</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.5200190140168</v>
+        <v>297.0821995035174</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.0381084275017</v>
+        <v>268.7290913404751</v>
       </c>
       <c r="AD2" t="n">
-        <v>187481.1781379175</v>
+        <v>217126.6047024588</v>
       </c>
       <c r="AE2" t="n">
-        <v>256520.0190140168</v>
+        <v>297082.1995035174</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.514040076458844e-06</v>
+        <v>6.174029793273357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>232038.1084275017</v>
+        <v>268729.0913404751</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.1682531197744</v>
+        <v>153.8135901757646</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.8924818351171</v>
+        <v>210.4545398550692</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.6781818144165</v>
+        <v>190.3690539461633</v>
       </c>
       <c r="AD3" t="n">
-        <v>124168.2531197745</v>
+        <v>153813.5901757646</v>
       </c>
       <c r="AE3" t="n">
-        <v>169892.4818351171</v>
+        <v>210454.5398550692</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.332971734227922e-06</v>
+        <v>7.612860410941254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.932725694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>153678.1818144165</v>
+        <v>190369.0539461633</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.7970208286897</v>
+        <v>307.6580557177598</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.0434541516705</v>
+        <v>420.9513247485299</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.2042192291401</v>
+        <v>380.7763211234244</v>
       </c>
       <c r="AD2" t="n">
-        <v>266797.0208286897</v>
+        <v>307658.0557177598</v>
       </c>
       <c r="AE2" t="n">
-        <v>365043.4541516704</v>
+        <v>420951.3247485299</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.830629358435266e-06</v>
+        <v>4.840060750807766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>330204.21922914</v>
+        <v>380776.3211234244</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.1720172497865</v>
+        <v>170.6879203031684</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.4719791228895</v>
+        <v>233.5427427782766</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.8620218171934</v>
+        <v>211.2537511868835</v>
       </c>
       <c r="AD3" t="n">
-        <v>150172.0172497865</v>
+        <v>170687.9203031684</v>
       </c>
       <c r="AE3" t="n">
-        <v>205471.9791228895</v>
+        <v>233542.7427782766</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.083720668172022e-06</v>
+        <v>6.982707242960254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.043402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>185862.0218171934</v>
+        <v>211253.7511868835</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.4519792018334</v>
+        <v>161.140358664508</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.4901530790154</v>
+        <v>220.479347735576</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.4553033817074</v>
+        <v>199.4371082324639</v>
       </c>
       <c r="AD4" t="n">
-        <v>130451.9792018334</v>
+        <v>161140.358664508</v>
       </c>
       <c r="AE4" t="n">
-        <v>178490.1530790154</v>
+        <v>220479.347735576</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.279869076897949e-06</v>
+        <v>7.318099162633044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>161455.3033817073</v>
+        <v>199437.1082324639</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.0451195255854</v>
+        <v>223.5641696587289</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.4504079155333</v>
+        <v>305.8903598820036</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.5477724935028</v>
+        <v>276.6966132547722</v>
       </c>
       <c r="AD2" t="n">
-        <v>183045.1195255854</v>
+        <v>223564.1696587289</v>
       </c>
       <c r="AE2" t="n">
-        <v>250450.4079155333</v>
+        <v>305890.3598820036</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.861443757500757e-06</v>
+        <v>6.133391926024713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.246961805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>226547.7724935028</v>
+        <v>276696.6132547721</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7830605870508</v>
+        <v>145.5396380457604</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.4701767690067</v>
+        <v>199.1337535297971</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.9144265651433</v>
+        <v>180.1287075789482</v>
       </c>
       <c r="AD2" t="n">
-        <v>126783.0605870508</v>
+        <v>145539.6380457604</v>
       </c>
       <c r="AE2" t="n">
-        <v>173470.1767690067</v>
+        <v>199133.7535297971</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.317488481075449e-06</v>
+        <v>7.954681247470274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.25390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>156914.4265651433</v>
+        <v>180128.7075789482</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.2999565820828</v>
+        <v>146.0565340407923</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.177416673251</v>
+        <v>199.8409934340413</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.5541684855442</v>
+        <v>180.768449499349</v>
       </c>
       <c r="AD3" t="n">
-        <v>127299.9565820828</v>
+        <v>146056.5340407924</v>
       </c>
       <c r="AE3" t="n">
-        <v>174177.416673251</v>
+        <v>199840.9934340413</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.318115552094947e-06</v>
+        <v>7.955836583518418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.251736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>157554.1684855442</v>
+        <v>180768.449499349</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.2573961624324</v>
+        <v>178.3986888851391</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.2205542009376</v>
+        <v>244.0929565272251</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.7300311334063</v>
+        <v>220.7970673429537</v>
       </c>
       <c r="AD2" t="n">
-        <v>149257.3961624324</v>
+        <v>178398.6888851391</v>
       </c>
       <c r="AE2" t="n">
-        <v>204220.5542009376</v>
+        <v>244092.9565272251</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.939974496650533e-06</v>
+        <v>7.038476905701904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.542534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>184730.0311334063</v>
+        <v>220797.0673429537</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.4650225298326</v>
+        <v>149.8926405201881</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.507999535815</v>
+        <v>205.0897235562217</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.4714465977176</v>
+        <v>185.5162481853092</v>
       </c>
       <c r="AD3" t="n">
-        <v>130465.0225298326</v>
+        <v>149892.6405201881</v>
       </c>
       <c r="AE3" t="n">
-        <v>178507.999535815</v>
+        <v>205089.7235562218</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.363897076954667e-06</v>
+        <v>7.795783658274233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.004340277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>161471.4465977176</v>
+        <v>185516.2481853092</v>
       </c>
     </row>
   </sheetData>
